--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352529.007848736</v>
+        <v>1348372.82154077</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>124.2655149340658</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>48.60751682748921</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>25.03414358596902</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>19.81236293922254</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>325.4264296197267</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>17.71122465304663</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>74.48072124826325</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>181.0919561226081</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>184.8338361531327</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>226.9017564263117</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.86538463674702</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.26859075599009</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>105.1669704749667</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.16086499484859</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>81.27859867330054</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>149.1095818503219</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>73.98898794535445</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.14989839348819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2399.161149170366</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="C2" t="n">
-        <v>2030.198632229954</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="D2" t="n">
-        <v>1671.932933623204</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.144681024959</v>
+        <v>974.4300896618174</v>
       </c>
       <c r="F2" t="n">
-        <v>875.158776235352</v>
+        <v>563.4441848722098</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723717</v>
+        <v>287.6947354520161</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905637</v>
+        <v>525.3175166702063</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481667</v>
+        <v>821.3880832278071</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483752</v>
+        <v>1126.86318946339</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1758.668415689757</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4363,19 +4363,19 @@
         <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2448.259651016315</v>
+        <v>2194.618789397902</v>
       </c>
       <c r="V2" t="n">
-        <v>2448.259651016315</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="W2" t="n">
-        <v>2448.259651016315</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="X2" t="n">
-        <v>2399.161149170366</v>
+        <v>1490.090143793251</v>
       </c>
       <c r="Y2" t="n">
-        <v>2399.161149170366</v>
+        <v>1099.950811817439</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152943</v>
+        <v>408.1293476730576</v>
       </c>
       <c r="M3" t="n">
-        <v>1472.557493554223</v>
+        <v>1049.152557292952</v>
       </c>
       <c r="N3" t="n">
-        <v>2113.580703174116</v>
+        <v>1690.175766912846</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925575</v>
+        <v>2318.904414748265</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.2373530917023</v>
+        <v>780.9800723632304</v>
       </c>
       <c r="C4" t="n">
-        <v>508.2373530917023</v>
+        <v>780.9800723632304</v>
       </c>
       <c r="D4" t="n">
-        <v>508.2373530917023</v>
+        <v>630.8634329508947</v>
       </c>
       <c r="E4" t="n">
-        <v>508.2373530917023</v>
+        <v>482.9503393685015</v>
       </c>
       <c r="F4" t="n">
-        <v>361.347405593792</v>
+        <v>336.0603918705912</v>
       </c>
       <c r="G4" t="n">
-        <v>193.0256331869159</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1086.791150136561</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>797.654523128663</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>797.654523128663</v>
+        <v>1291.189821543721</v>
       </c>
       <c r="W4" t="n">
-        <v>508.2373530917023</v>
+        <v>1001.772651506761</v>
       </c>
       <c r="X4" t="n">
-        <v>508.2373530917023</v>
+        <v>1001.772651506761</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.2373530917023</v>
+        <v>780.9800723632304</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1106.965295718544</v>
+        <v>1689.076413520797</v>
       </c>
       <c r="C5" t="n">
-        <v>1106.965295718544</v>
+        <v>1320.113896580385</v>
       </c>
       <c r="D5" t="n">
-        <v>778.251730446093</v>
+        <v>961.848197973635</v>
       </c>
       <c r="E5" t="n">
-        <v>778.251730446093</v>
+        <v>961.848197973635</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>550.8622931840275</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>135.1804513841595</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="W5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="X5" t="n">
-        <v>1883.704467758478</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="Y5" t="n">
-        <v>1493.565135782666</v>
+        <v>2075.676253584919</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>965.5645858344687</v>
       </c>
       <c r="N6" t="n">
-        <v>1606.587795454363</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>939.1780282016797</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>770.2418452737728</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>620.1252058614371</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.750618387955</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.750618387955</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.816043929937</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.816043929937</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1348.816043929937</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.816043929937</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>1120.826493031919</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.826493031919</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113.046930290616</v>
+        <v>2360.799072781075</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.346085691492</v>
+        <v>1991.836555840663</v>
       </c>
       <c r="D8" t="n">
-        <v>1568.080387084741</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.292134486497</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.046930290616</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.046930290616</v>
+        <v>2360.799072781075</v>
       </c>
       <c r="Y8" t="n">
-        <v>2113.046930290616</v>
+        <v>2360.799072781075</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457227</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.68540766379</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O9" t="n">
-        <v>2034.614088379321</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P9" t="n">
-        <v>2284.09081624434</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.6862392510986</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C10" t="n">
-        <v>361.7500563231918</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D10" t="n">
-        <v>361.7500563231918</v>
+        <v>408.0830829048879</v>
       </c>
       <c r="E10" t="n">
-        <v>361.7500563231918</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="F10" t="n">
-        <v>214.8601088252814</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="G10" t="n">
-        <v>214.8601088252814</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>66.21257325816325</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4989,25 +4989,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.116834122886</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X10" t="n">
-        <v>933.1272832248685</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.3347040813384</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,19 +5293,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5600,13 +5600,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6280888252693</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611858</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4357.362578810748</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4068.287352154946</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3813.602863949059</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3524.185693912098</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6305,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2418.621364762389</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2913.946970978148</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3511.3254586047</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3278.063798229818</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3905.661761784424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,43 +7156,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3342.537229081859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.537229081859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>390.823249958218</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>240.7066105458822</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>151.6735093079758</v>
+        <v>360.2919261714491</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8002,7 +8002,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47.17774030888091</v>
+        <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>359.2821607945077</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>33.81943452253708</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>256.7871481632768</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>299.8549597144495</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>299.8549597144482</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.7491560325416</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870885</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>113.417682877128</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.6711151870887</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.24553961896831</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>68.29586847696632</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>72.44497470121472</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>102.889702261794</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>977847.7089312363</v>
+        <v>977847.7089312366</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933708.0853286179</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286183</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286183</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185694</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
@@ -26334,28 +26334,28 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042354</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26453,13 +26453,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695015</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-696188.78766898</v>
+        <v>-696188.7876689772</v>
       </c>
       <c r="C6" t="n">
-        <v>97312.85804192</v>
+        <v>97312.85804191738</v>
       </c>
       <c r="D6" t="n">
-        <v>270077.2178318123</v>
+        <v>270077.217831812</v>
       </c>
       <c r="E6" t="n">
-        <v>-124010.9182873492</v>
+        <v>-124358.2975417059</v>
       </c>
       <c r="F6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040444</v>
       </c>
       <c r="G6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040444</v>
       </c>
       <c r="H6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="I6" t="n">
-        <v>376877.9494584012</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="J6" t="n">
-        <v>207463.9326323534</v>
+        <v>207116.5533779964</v>
       </c>
       <c r="K6" t="n">
-        <v>376877.9494584012</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="L6" t="n">
-        <v>376877.9494584015</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="M6" t="n">
-        <v>245993.4925541663</v>
+        <v>245646.1132998091</v>
       </c>
       <c r="N6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040447</v>
       </c>
       <c r="O6" t="n">
-        <v>376877.9494584013</v>
+        <v>376530.5702040443</v>
       </c>
       <c r="P6" t="n">
-        <v>376877.9494584015</v>
+        <v>376530.5702040443</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>258.4683267294148</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>321.1235838509798</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>125.1687440779515</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>232.3252803846055</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>29.2566120009563</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>283.0750625954131</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>26.61942737228117</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>180.4390556178749</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>142.8293442521573</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>105.4310422139825</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>90.22206875701104</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33025,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551099</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>210.394892436556</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491741</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>429.5686803348794</v>
+        <v>638.1870971983506</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>313.7833276780605</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>207.8890920515356</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915742</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
         <v>260.4495531344171</v>
@@ -35026,16 +35026,16 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352464</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>595.0989468658335</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>551.8516545275997</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352464</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>551.8516545275986</v>
       </c>
       <c r="Q9" t="n">
-        <v>280.7788422623038</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075094</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>68.26085851453769</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348372.82154077</v>
+        <v>1350133.351843555</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.2655149340658</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>153.8194119656293</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885173</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>19.81236293922254</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>134.9708105002863</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>27.59935350113355</v>
       </c>
       <c r="H5" t="n">
-        <v>17.71122465304663</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -949,19 +949,19 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>181.0919561226081</v>
+        <v>181.0919561226084</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>226.9017564263117</v>
+        <v>223.551828802917</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.86538463674702</v>
+        <v>60.86538463674658</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.1669704749667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>48.13676080754331</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>81.27859867330054</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>121.8000472740347</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>73.98898794535445</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>40.57972681915209</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>42.53134576113725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.4300896618174</v>
+        <v>713.3509717533173</v>
       </c>
       <c r="C2" t="n">
-        <v>974.4300896618174</v>
+        <v>713.3509717533173</v>
       </c>
       <c r="D2" t="n">
-        <v>974.4300896618174</v>
+        <v>713.3509717533173</v>
       </c>
       <c r="E2" t="n">
-        <v>974.4300896618174</v>
+        <v>713.3509717533173</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722098</v>
+        <v>302.3650669637097</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>293.3053724073759</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520161</v>
+        <v>776.0043429178238</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702063</v>
+        <v>1013.627124136015</v>
       </c>
       <c r="M2" t="n">
-        <v>821.3880832278071</v>
+        <v>1309.697690693617</v>
       </c>
       <c r="N2" t="n">
-        <v>1126.86318946339</v>
+        <v>1615.172796929202</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689757</v>
+        <v>1890.289016245836</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068627</v>
+        <v>2409.174064624706</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4363,7 +4363,7 @@
         <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397902</v>
+        <v>2194.618789397901</v>
       </c>
       <c r="V2" t="n">
         <v>1863.555902054331</v>
@@ -4397,49 +4397,49 @@
         <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093829</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>77.11538214995046</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202281</v>
+        <v>198.5384744202291</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730576</v>
+        <v>775.2612895234842</v>
       </c>
       <c r="M3" t="n">
-        <v>1049.152557292952</v>
+        <v>1416.284499143378</v>
       </c>
       <c r="N3" t="n">
-        <v>1690.175766912846</v>
+        <v>1701.618369576711</v>
       </c>
       <c r="O3" t="n">
-        <v>2318.904414748265</v>
+        <v>2330.347017412131</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>780.9800723632304</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="C4" t="n">
-        <v>780.9800723632304</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D4" t="n">
-        <v>630.8634329508947</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E4" t="n">
-        <v>482.9503393685015</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>336.0603918705912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.034527330184</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159871</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341311</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666712</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092719</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357427</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993471</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="V4" t="n">
-        <v>1291.189821543721</v>
+        <v>1056.517821155234</v>
       </c>
       <c r="W4" t="n">
-        <v>1001.772651506761</v>
+        <v>1056.517821155234</v>
       </c>
       <c r="X4" t="n">
-        <v>1001.772651506761</v>
+        <v>920.1836691347426</v>
       </c>
       <c r="Y4" t="n">
-        <v>780.9800723632304</v>
+        <v>699.3910899912124</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.076413520797</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.113896580385</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="D5" t="n">
-        <v>961.848197973635</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="E5" t="n">
-        <v>961.848197973635</v>
+        <v>556.1543651112286</v>
       </c>
       <c r="F5" t="n">
-        <v>550.8622931840275</v>
+        <v>145.168460321621</v>
       </c>
       <c r="G5" t="n">
-        <v>135.1804513841595</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
@@ -4567,25 +4567,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.815585560731</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.815585560731</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.815585560731</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.676253584919</v>
+        <v>556.1543651112286</v>
       </c>
     </row>
     <row r="6">
@@ -4631,16 +4631,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4649,19 +4649,19 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344687</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1690.902827875742</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
         <v>2237.235965858066</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2360.799072781075</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>1991.836555840663</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>1633.570857233913</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135512</v>
@@ -4813,7 +4813,7 @@
         <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4846,10 +4846,10 @@
         <v>2589.992766140986</v>
       </c>
       <c r="X8" t="n">
-        <v>2360.799072781075</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="Y8" t="n">
-        <v>2360.799072781075</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="9">
@@ -4868,37 +4868,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421438</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344694</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160212</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875743</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451305</v>
+        <v>727.1359052451301</v>
       </c>
       <c r="C10" t="n">
-        <v>558.1997223172236</v>
+        <v>558.1997223172232</v>
       </c>
       <c r="D10" t="n">
-        <v>408.0830829048879</v>
+        <v>408.0830829048874</v>
       </c>
       <c r="E10" t="n">
-        <v>260.1699893224948</v>
+        <v>260.1699893224943</v>
       </c>
       <c r="F10" t="n">
-        <v>113.2800418245844</v>
+        <v>113.2800418245839</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4962,25 +4962,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5001,13 +5001,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116918</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
         <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753702</v>
+        <v>908.7843700753698</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5178,22 +5178,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>810.0653816078141</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5477693179085</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4311299055728</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5180363231797</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6280888252693</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>216.8470138298251</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>482.6390612909563</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>135.3992198226851</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,10 +7189,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572603</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>527.7722521572603</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>360.2919261714491</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>79.36488908810591</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.19461818159752</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>380.8926041660675</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945077</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>33.81943452253708</v>
+        <v>22.26125001358008</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>35.3897227018706</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>299.8549597144495</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144482</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012604</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.417682877128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>131.695219374394</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>72.44497470121472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.1279816392578</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>185.1299285698851</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>102.889702261794</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>977847.7089312366</v>
+        <v>977847.7089312364</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286183</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
@@ -26343,19 +26343,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753976</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898934</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042354</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151601</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
@@ -26441,7 +26441,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
@@ -26456,7 +26456,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695015</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.07489699087</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-696188.7876689772</v>
+        <v>-696188.787668979</v>
       </c>
       <c r="C6" t="n">
-        <v>97312.85804191738</v>
+        <v>97312.85804191913</v>
       </c>
       <c r="D6" t="n">
-        <v>270077.217831812</v>
+        <v>270077.2178318125</v>
       </c>
       <c r="E6" t="n">
-        <v>-124358.2975417059</v>
+        <v>-124045.656212785</v>
       </c>
       <c r="F6" t="n">
-        <v>376530.5702040444</v>
+        <v>376843.2115329656</v>
       </c>
       <c r="G6" t="n">
-        <v>376530.5702040444</v>
+        <v>376843.2115329656</v>
       </c>
       <c r="H6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="I6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="J6" t="n">
-        <v>207116.5533779964</v>
+        <v>207429.1947069177</v>
       </c>
       <c r="K6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="L6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="M6" t="n">
-        <v>245646.1132998091</v>
+        <v>245958.7546287304</v>
       </c>
       <c r="N6" t="n">
-        <v>376530.5702040447</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="O6" t="n">
-        <v>376530.5702040443</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="P6" t="n">
-        <v>376530.5702040443</v>
+        <v>376843.2115329657</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498446</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522349</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918289</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258.4683267294148</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>258.4683267294148</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27596,13 +27596,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>232.3252803846055</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>90.7388448887508</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>383.9256698807358</v>
       </c>
       <c r="H5" t="n">
-        <v>283.0750625954131</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>105.4310422139829</v>
+        <v>105.4310422139826</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>142.8293442521573</v>
+        <v>146.179271875552</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4310422139825</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-2.732407675591068e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090891</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066895</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611369</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014937</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682851</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658683</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485895</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775956</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330904</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325346</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282124</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072712</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674104</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307771</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.4910271261556</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.262332560511</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911972</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240732</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.8133674257154</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028909</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969222</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993425</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777202</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855589</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600313</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932505</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.80993132519961</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567077</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965187</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>243.944966752077</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>487.5747176873211</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315064</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410124</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692774</v>
       </c>
       <c r="O2" t="n">
-        <v>638.1870971983506</v>
+        <v>277.8951710269027</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>524.1263114938087</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>182.6451530467468</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>25.57123921932399</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>122.6495881517966</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>582.548298084096</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>288.2160307407399</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>635.0794422580004</v>
       </c>
       <c r="P3" t="n">
-        <v>207.8890920515356</v>
+        <v>196.3309075425794</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>65.93752551686939</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883111</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550911</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944467</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>335.7048228193602</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>551.8516545275997</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275986</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
